--- a/Guides/GuideCheck.xlsx
+++ b/Guides/GuideCheck.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\World of Warcraft Sirus\Interface\AddOns\ZygorGuidesViewer\Guides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F03A66-B789-4CED-BCFC-36DEF16DC6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED7269D-914D-46CA-A493-A38159BD0681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Alliance" sheetId="1" r:id="rId1"/>
+    <sheet name="Horde" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>Ru Human (1-13)</t>
   </si>
@@ -124,13 +125,40 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Warlock</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Palladin</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Shaman</t>
+  </si>
+  <si>
+    <t>Druid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +175,19 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -234,11 +275,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -250,11 +332,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="36">
     <dxf>
       <font>
         <strike val="0"/>
@@ -267,6 +383,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -282,11 +399,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -296,28 +409,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -344,9 +437,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -354,11 +455,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -368,6 +465,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -375,8 +473,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -396,7 +498,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -407,11 +511,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -421,28 +521,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -469,9 +549,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -479,11 +567,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -493,7 +577,67 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -502,7 +646,546 @@
         </right>
         <top/>
         <bottom/>
-      </border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -539,12 +1222,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Ally" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
     <tableStyle name="hord" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -569,20 +1252,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:B26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IsCheck" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="9" dataDxfId="31" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="IsCheck" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E57EE806-D47B-462F-AA1A-F63D1047D6B2}" name="Warrior" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{ABE6ABF9-F30A-4001-93DB-C1366FD1E08E}" name="Warlock" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{693CFD12-B351-446A-833D-7A3583113D0C}" name="Rogue" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{D6A7BBF8-2ADA-44AD-AC78-F59E5684E5D2}" name="Priest" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A08535C7-E07B-4261-98A1-414FC1350B14}" name="Mage" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{21AD0D03-A05B-408D-B5EF-29872D9F3E08}" name="Palladin" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{34E54A1C-F2EA-4F19-B574-8DEE50AA872D}" name="Hunter" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{C15431A1-9F80-42D1-8E9B-F67176D015B8}" name="Shaman" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{D461976D-DC2D-40DE-90A5-771E55A0F89E}" name="Druid" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Ally" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="E1:F26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="IsCheck" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:K26" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="IsCheck" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{18C1574E-1AB8-481B-BEBF-741276C51DCB}" name="Warrior" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{5CD49E0C-3607-445B-A904-2840681BEA9C}" name="Warlock" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{8EF6E4EE-CFDE-4A02-9CF1-568F8CD39AE6}" name="Rogue" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{40AB843E-985A-4D85-B478-E8C218973DD2}" name="Priest" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{8D6EF3B6-6BF5-4660-BB8B-50E873D56A9A}" name="Mage" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{066C5D0A-58AF-4D7E-867F-3CC545B9D180}" name="Palladin" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{F6D0179F-E565-4A6E-9678-E81A50C7E4CF}" name="Hunter" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{2B186F9E-36DB-4464-BAF4-3F5A32ADA5D3}" name="Shaman" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{A26D51D4-90DA-42CC-93C9-90400814668A}" name="Druid" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="hord" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -885,342 +1586,936 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.7109375" style="21" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="7"/>
+      <c r="B26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F24F22-57F2-489F-B521-EE1B54A520E4}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>